--- a/Assets/StreamingAssets/StoryScript12.xlsx
+++ b/Assets/StreamingAssets/StoryScript12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AD1322-5E68-0341-BFA2-76CA7E4957E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B23939-97B6-8640-BB09-783CFC535148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,11 +122,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yao-Thinking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>·</t>
+    <t>Study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suspicious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Investigate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He-Sad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sir, allow me to show you the Lord’s study.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Much appreciated.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steward He skillfully unlocked the door to the rear study.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please, both of you, come in.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No one has entered this study since the Lord passed away.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Everything inside should be just as he left it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did the Lord often spend time in this study?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes. Aside from resting in his room or receiving guests in the main hall, he spent most of his time here—reading and drinking tea.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Very well. Let’s begin the investigation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click on any area you find suspicious to gather clues.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryScript13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He-Regular1</t>
+  </si>
+  <si>
+    <t>He-Regular1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>End Investigation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -601,9 +684,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" ht="17">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
       <c r="D2" t="s">
         <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>18</v>
@@ -621,12 +719,24 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
       <c r="D3" t="s">
         <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -635,9 +745,18 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="17">
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" t="s">
         <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3">
@@ -650,9 +769,21 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" ht="17">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" t="s">
         <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -661,9 +792,21 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" ht="34">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
       <c r="D6" t="s">
         <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -672,7 +815,22 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="17">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -680,21 +838,174 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:16">
-      <c r="G8" s="3" t="s">
-        <v>13</v>
-      </c>
+    <row r="8" spans="1:16" ht="17">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="51">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" ht="17">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" ht="17">
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" ht="17">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" ht="17">
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" ht="17">
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" ht="17">
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/StoryScript12.xlsx
+++ b/Assets/StreamingAssets/StoryScript12.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B23939-97B6-8640-BB09-783CFC535148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEED5D3-A8E0-CC42-9778-B2969778B37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -166,14 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Steward He skillfully unlocked the door to the rear study.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please, both of you, come in.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No one has entered this study since the Lord passed away.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Click on any area you find suspicious to gather clues.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StoryScript13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,6 +198,18 @@
   </si>
   <si>
     <t>End Investigation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Click on any area you find suspicious to gather clues.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please come in.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Butler He skillfully unlocked the door to the study.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +618,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -692,7 +692,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -730,7 +730,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -745,12 +745,12 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="17">
+    <row r="4" spans="1:16" ht="34">
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -774,10 +774,10 @@
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -797,10 +797,10 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -820,10 +820,10 @@
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -843,10 +843,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -866,10 +866,10 @@
         <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -889,10 +889,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -907,12 +907,12 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="17">
+    <row r="11" spans="1:16" ht="34">
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -996,10 +996,10 @@
     </row>
     <row r="15" spans="1:16" ht="17">
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>

--- a/Assets/StreamingAssets/StoryScript12.xlsx
+++ b/Assets/StreamingAssets/StoryScript12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEED5D3-A8E0-CC42-9778-B2969778B37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94042850-45E6-E44E-99A1-DCB479A5243E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,10 +115,6 @@
   </si>
   <si>
     <t>Dee-Thinking2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dee-Thinking1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -618,7 +614,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -686,22 +682,22 @@
     </row>
     <row r="2" spans="1:16" ht="17">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>18</v>
@@ -719,24 +715,24 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -747,43 +743,39 @@
     </row>
     <row r="4" spans="1:16" ht="34">
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="17">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -794,19 +786,19 @@
     </row>
     <row r="6" spans="1:16" ht="34">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -817,19 +809,19 @@
     </row>
     <row r="7" spans="1:16" ht="17">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -840,19 +832,19 @@
     </row>
     <row r="8" spans="1:16" ht="17">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -863,19 +855,19 @@
     </row>
     <row r="9" spans="1:16" ht="51">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -886,19 +878,19 @@
     </row>
     <row r="10" spans="1:16" ht="17">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -909,16 +901,16 @@
     </row>
     <row r="11" spans="1:16" ht="34">
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -929,19 +921,19 @@
     </row>
     <row r="12" spans="1:16" ht="17">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -952,16 +944,16 @@
     </row>
     <row r="13" spans="1:16" ht="17">
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -972,16 +964,16 @@
     </row>
     <row r="14" spans="1:16" ht="17">
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>13</v>
@@ -996,16 +988,16 @@
     </row>
     <row r="15" spans="1:16" ht="17">
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
